--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -52,136 +49,136 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>store</t>
   </si>
   <si>
     <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -539,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -608,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -626,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -650,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -658,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.88</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -676,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7058823529411765</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6948051948051948</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C6">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4761904761904762</v>
+        <v>0.2131782945736434</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3928571428571428</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K8">
-        <v>0.9</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -904,41 +901,17 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3776824034334764</v>
-      </c>
-      <c r="C9">
-        <v>88</v>
-      </c>
-      <c r="D9">
-        <v>88</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>145</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K9">
-        <v>0.8627450980392157</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,221 +923,125 @@
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L10">
+        <v>69</v>
+      </c>
+      <c r="M10">
+        <v>69</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.7890625</v>
+      </c>
+      <c r="L11">
+        <v>101</v>
+      </c>
+      <c r="M11">
+        <v>101</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>0.775</v>
+      </c>
+      <c r="L12">
+        <v>93</v>
+      </c>
+      <c r="M12">
+        <v>93</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13">
+        <v>0.75</v>
+      </c>
+      <c r="L13">
+        <v>21</v>
+      </c>
+      <c r="M13">
+        <v>21</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>19</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L10">
-        <v>11</v>
-      </c>
-      <c r="M10">
-        <v>11</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>66</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L11">
-        <v>47</v>
-      </c>
-      <c r="M11">
-        <v>47</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2</v>
-      </c>
-      <c r="C12">
-        <v>16</v>
-      </c>
-      <c r="D12">
-        <v>16</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>64</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1181818181818182</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>13</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>97</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L13">
-        <v>42</v>
-      </c>
-      <c r="M13">
-        <v>42</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.8148148148148148</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1176,21 +1053,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1202,21 +1079,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7407407407407407</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1228,21 +1105,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7241379310344828</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1254,21 +1131,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.717948717948718</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1280,21 +1157,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.6875</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1306,47 +1183,47 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.7058823529411765</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
+        <v>24</v>
+      </c>
+      <c r="M20">
+        <v>24</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>12</v>
-      </c>
-      <c r="M20">
-        <v>12</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>5</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1358,21 +1235,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6538461538461539</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1384,21 +1261,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.6470588235294118</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L23">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1410,21 +1287,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.64</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1436,47 +1313,47 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.6363636363636364</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>21</v>
-      </c>
-      <c r="M25">
-        <v>21</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>12</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.631578947368421</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1488,21 +1365,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.6164383561643836</v>
+        <v>0.525</v>
       </c>
       <c r="L27">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1514,21 +1391,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.5666666666666667</v>
+        <v>0.5169712793733682</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1540,21 +1417,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.539906103286385</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="L29">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="M29">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1566,47 +1443,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>98</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L30">
+        <v>42</v>
+      </c>
+      <c r="M30">
+        <v>42</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>47</v>
-      </c>
-      <c r="K30">
-        <v>0.5</v>
-      </c>
-      <c r="L30">
-        <v>11</v>
-      </c>
-      <c r="M30">
-        <v>11</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>11</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L31">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="M31">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1618,21 +1495,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>72</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4961240310077519</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L32">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1644,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.4673913043478261</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L33">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1670,21 +1547,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.4285714285714285</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1696,21 +1573,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.3928571428571428</v>
+        <v>0.40625</v>
       </c>
       <c r="L35">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1722,21 +1599,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.2972972972972973</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1748,21 +1625,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.03658536585365853</v>
+        <v>0.3682008368200837</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1774,21 +1651,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>395</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.02582159624413146</v>
+        <v>0.03691275167785235</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1800,7 +1677,111 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>415</v>
+        <v>861</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K39">
+        <v>0.02219755826859045</v>
+      </c>
+      <c r="L39">
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40">
+        <v>0.01635514018691589</v>
+      </c>
+      <c r="L40">
+        <v>35</v>
+      </c>
+      <c r="M40">
+        <v>38</v>
+      </c>
+      <c r="N40">
+        <v>0.92</v>
+      </c>
+      <c r="O40">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K41">
+        <v>0.01129396579541788</v>
+      </c>
+      <c r="L41">
+        <v>35</v>
+      </c>
+      <c r="M41">
+        <v>43</v>
+      </c>
+      <c r="N41">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O41">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42">
+        <v>0.006576886940181647</v>
+      </c>
+      <c r="L42">
+        <v>21</v>
+      </c>
+      <c r="M42">
+        <v>29</v>
+      </c>
+      <c r="N42">
+        <v>0.72</v>
+      </c>
+      <c r="O42">
+        <v>0.28</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3172</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,15 @@
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -61,16 +64,19 @@
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
   </si>
   <si>
     <t>love</t>
@@ -79,91 +85,94 @@
     <t>nice</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>please</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>please</t>
+    <t>online</t>
   </si>
   <si>
     <t>store</t>
@@ -172,13 +181,10 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -536,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +550,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +611,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +629,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,13 +661,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6666666666666666</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -705,13 +711,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6232876712328768</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C5">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D5">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -755,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2222222222222222</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6">
         <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2131782945736434</v>
+        <v>0.2116402116402116</v>
       </c>
       <c r="C7">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>406</v>
+        <v>149</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1342281879194631</v>
+        <v>0.2112403100775194</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>129</v>
+        <v>407</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,21 +903,45 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.1409395973154362</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>128</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8482142857142857</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L9">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -923,21 +953,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10">
-        <v>0.8414634146341463</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -949,21 +979,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -975,12 +1005,12 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <v>0.775</v>
@@ -1006,16 +1036,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>0.7734375</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1027,21 +1057,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7413793103448276</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1053,21 +1083,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7253521126760564</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L15">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M15">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1079,21 +1109,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7037037037037037</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1105,21 +1135,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6944444444444444</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1131,21 +1161,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6886792452830188</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L18">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M18">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1157,12 +1187,12 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K19">
         <v>0.6875</v>
@@ -1188,16 +1218,16 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1209,21 +1239,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1235,21 +1265,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6063829787234043</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L22">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1261,21 +1291,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6041666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1287,21 +1317,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5957446808510638</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="M24">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1313,21 +1343,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1339,21 +1369,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5714285714285714</v>
+        <v>0.5625</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1365,21 +1395,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.525</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1391,21 +1421,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5169712793733682</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L28">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="M28">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1417,21 +1447,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>185</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4823529411764706</v>
+        <v>0.5300261096605744</v>
       </c>
       <c r="L29">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="M29">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1443,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4719101123595505</v>
+        <v>0.525</v>
       </c>
       <c r="L30">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1469,21 +1499,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>47</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4406779661016949</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L31">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="M31">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1495,21 +1525,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>165</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4246575342465753</v>
+        <v>0.4794117647058824</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1521,21 +1551,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>42</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.4222222222222222</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1547,15 +1577,15 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>26</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.4153846153846154</v>
+        <v>0.421875</v>
       </c>
       <c r="L34">
         <v>27</v>
@@ -1573,21 +1603,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.40625</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1599,21 +1629,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.3717948717948718</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L36">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1625,12 +1655,12 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K37">
         <v>0.3682008368200837</v>
@@ -1656,16 +1686,16 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.03691275167785235</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L38">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M38">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1677,21 +1707,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>861</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.02219755826859045</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1703,85 +1733,111 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>881</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.01635514018691589</v>
+        <v>0.04138702460850112</v>
       </c>
       <c r="L40">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M40">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N40">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>2105</v>
+        <v>857</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.01129396579541788</v>
+        <v>0.03107658157602664</v>
       </c>
       <c r="L41">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M41">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N41">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>3064</v>
+        <v>873</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.006576886940181647</v>
+        <v>0.01450209474701901</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N42">
-        <v>0.72</v>
+        <v>0.92</v>
       </c>
       <c r="O42">
-        <v>0.28</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>3172</v>
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43">
+        <v>0.01399906672888474</v>
+      </c>
+      <c r="L43">
+        <v>30</v>
+      </c>
+      <c r="M43">
+        <v>30</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>2113</v>
       </c>
     </row>
   </sheetData>
